--- a/data/input/TwitterData.xlsx
+++ b/data/input/TwitterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricky\Documents\Chapman Documents\R Class-696-01\BUS696\BUS696-final-project\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D490D23-2103-4670-B587-97E485D5300A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE33DBD6-ADA5-49A5-BF35-998B6CE1F04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{EBAFD81A-E720-40B0-B744-3FA610D9D57E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>taster_twitter_handle</t>
   </si>
@@ -103,12 +103,21 @@
   </si>
   <si>
     <t>number_of_followers</t>
+  </si>
+  <si>
+    <t>average_points</t>
+  </si>
+  <si>
+    <t>average_price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,12 +154,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3874AB1-5AE4-4DF1-9A77-CAB07E6B7177}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,9 +487,11 @@
     <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +507,14 @@
       <c r="E1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -512,8 +530,14 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="3">
+        <v>31.2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -529,8 +553,14 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="3">
+        <v>31.1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -546,8 +576,14 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="3">
+        <v>26.9</v>
+      </c>
+      <c r="G4" s="3">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -563,8 +599,14 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="3">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G5" s="3">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -580,8 +622,14 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="3">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -597,8 +645,14 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -614,8 +668,14 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="3">
+        <v>38.6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -631,8 +691,14 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="3">
+        <v>33.6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -648,8 +714,14 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="3">
+        <v>22.9</v>
+      </c>
+      <c r="G10" s="3">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -665,8 +737,14 @@
       <c r="E11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -682,8 +760,14 @@
       <c r="E12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="3">
+        <v>38.6</v>
+      </c>
+      <c r="G12" s="3">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -699,8 +783,14 @@
       <c r="E13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="3">
+        <v>34.1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -716,8 +806,14 @@
       <c r="E14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -733,8 +829,14 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="3">
+        <v>29.3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -750,8 +852,14 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -767,14 +875,20 @@
       <c r="E17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="3">
+        <v>35.6</v>
+      </c>
+      <c r="G17" s="3">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
     </row>
   </sheetData>

--- a/data/input/TwitterData.xlsx
+++ b/data/input/TwitterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricky\Documents\Chapman Documents\R Class-696-01\BUS696\BUS696-final-project\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garretthawes/wine-project/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE33DBD6-ADA5-49A5-BF35-998B6CE1F04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00AF566-9A63-6E4D-A5BF-02EBD18A94C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{EBAFD81A-E720-40B0-B744-3FA610D9D57E}"/>
+    <workbookView xWindow="4480" yWindow="3200" windowWidth="25180" windowHeight="16260" xr2:uid="{EBAFD81A-E720-40B0-B744-3FA610D9D57E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>taster_twitter_handle</t>
   </si>
@@ -81,9 +81,6 @@
     <t xml:space="preserve">@worldwineguys </t>
   </si>
   <si>
-    <t>No Twitter Handle</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
@@ -93,31 +90,16 @@
     <t>M</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>number_of_reviews</t>
-  </si>
-  <si>
     <t>number_of_tweets</t>
   </si>
   <si>
     <t>number_of_followers</t>
-  </si>
-  <si>
-    <t>average_points</t>
-  </si>
-  <si>
-    <t>average_price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,13 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,423 +456,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3874AB1-5AE4-4DF1-9A77-CAB07E6B7177}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>3389</v>
+        <v>6748</v>
       </c>
       <c r="C2" s="2">
-        <v>6748</v>
-      </c>
-      <c r="D2" s="2">
         <v>13100</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3">
-        <v>31.2</v>
-      </c>
-      <c r="G2" s="3">
-        <v>90.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="C3">
-        <v>257</v>
-      </c>
-      <c r="D3">
         <v>424</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3">
-        <v>31.1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>86.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>4171</v>
-      </c>
-      <c r="C4" s="2">
         <v>1002</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>279</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3">
-        <v>26.9</v>
-      </c>
-      <c r="G4" s="3">
-        <v>88.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>5010</v>
+        <v>2798</v>
       </c>
       <c r="C5" s="2">
-        <v>2798</v>
-      </c>
-      <c r="D5" s="2">
         <v>4572</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="G5" s="3">
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>9874</v>
+        <v>3007</v>
       </c>
       <c r="C6" s="2">
-        <v>3007</v>
-      </c>
-      <c r="D6" s="2">
         <v>6143</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3">
-        <v>42</v>
-      </c>
-      <c r="G6" s="3">
-        <v>88.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>1712</v>
+        <v>1042</v>
       </c>
       <c r="C7" s="2">
-        <v>1042</v>
-      </c>
-      <c r="D7" s="2">
         <v>1929</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3">
-        <v>24.5</v>
-      </c>
-      <c r="G7" s="3">
-        <v>87.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>6237</v>
+        <v>1534</v>
       </c>
       <c r="C8" s="2">
-        <v>1534</v>
-      </c>
-      <c r="D8" s="2">
         <v>2540</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3">
-        <v>38.6</v>
-      </c>
-      <c r="G8" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>9497</v>
+        <v>1791</v>
       </c>
       <c r="C9" s="2">
-        <v>1791</v>
-      </c>
-      <c r="D9" s="2">
         <v>3207</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3">
-        <v>33.6</v>
-      </c>
-      <c r="G9" s="3">
-        <v>89.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>1068</v>
+        <v>1269</v>
       </c>
       <c r="C10" s="2">
-        <v>1269</v>
-      </c>
-      <c r="D10" s="2">
         <v>1905</v>
       </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3">
-        <v>22.9</v>
-      </c>
-      <c r="G10" s="3">
-        <v>86.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>9507</v>
+        <v>1284</v>
       </c>
       <c r="C11" s="2">
-        <v>1284</v>
-      </c>
-      <c r="D11" s="2">
         <v>2291</v>
       </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3">
-        <v>46.6</v>
-      </c>
-      <c r="G11" s="3">
-        <v>89.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>20172</v>
+        <v>803</v>
       </c>
       <c r="C12" s="2">
-        <v>803</v>
-      </c>
-      <c r="D12" s="2">
         <v>1034</v>
       </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3">
-        <v>38.6</v>
-      </c>
-      <c r="G12" s="3">
-        <v>88.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>4925</v>
+        <v>19200</v>
       </c>
       <c r="C13" s="2">
-        <v>19200</v>
-      </c>
-      <c r="D13" s="2">
         <v>10300</v>
       </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3">
-        <v>34.1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>88.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>14944</v>
+        <v>1212</v>
       </c>
       <c r="C14" s="2">
-        <v>1212</v>
-      </c>
-      <c r="D14" s="2">
         <v>1442</v>
       </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3">
-        <v>25.2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>86.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>6</v>
+        <v>7325</v>
       </c>
       <c r="C15" s="2">
-        <v>7325</v>
-      </c>
-      <c r="D15" s="2">
         <v>3720</v>
       </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="3">
-        <v>29.3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>87.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>961</v>
+        <v>1897</v>
       </c>
       <c r="C16" s="2">
-        <v>1897</v>
-      </c>
-      <c r="D16" s="2">
         <v>2615</v>
       </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="3">
-        <v>25.3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>88.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>29415</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3">
-        <v>35.6</v>
-      </c>
-      <c r="G17" s="3">
-        <v>87.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>